--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.51585713870719</v>
+        <v>6.433013333333332</v>
       </c>
       <c r="N2">
-        <v>4.51585713870719</v>
+        <v>19.29904</v>
       </c>
       <c r="O2">
-        <v>0.1010459402522268</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="P2">
-        <v>0.1010459402522268</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="Q2">
-        <v>639.8356474942999</v>
+        <v>965.1799259510753</v>
       </c>
       <c r="R2">
-        <v>639.8356474942999</v>
+        <v>8686.619333559678</v>
       </c>
       <c r="S2">
-        <v>0.04264625388300913</v>
+        <v>0.04555906857004582</v>
       </c>
       <c r="T2">
-        <v>0.04264625388300913</v>
+        <v>0.04555906857004582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5031156240661</v>
+        <v>32.709374</v>
       </c>
       <c r="N3">
-        <v>32.5031156240661</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O3">
-        <v>0.7272833879551917</v>
+        <v>0.5578561255548565</v>
       </c>
       <c r="P3">
-        <v>0.7272833879551917</v>
+        <v>0.5578561255548566</v>
       </c>
       <c r="Q3">
-        <v>4605.250208792066</v>
+        <v>4907.565014927069</v>
       </c>
       <c r="R3">
-        <v>4605.250208792066</v>
+        <v>44168.08513434362</v>
       </c>
       <c r="S3">
-        <v>0.3069486208967075</v>
+        <v>0.2316501669952403</v>
       </c>
       <c r="T3">
-        <v>0.3069486208967075</v>
+        <v>0.2316501669952403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.67215611815838</v>
+        <v>0.07263</v>
       </c>
       <c r="N4">
-        <v>7.67215611815838</v>
+        <v>0.21789</v>
       </c>
       <c r="O4">
-        <v>0.1716706717925815</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="P4">
-        <v>0.1716706717925815</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="Q4">
-        <v>1087.040361720689</v>
+        <v>10.89707332932</v>
       </c>
       <c r="R4">
-        <v>1087.040361720689</v>
+        <v>98.07365996388</v>
       </c>
       <c r="S4">
-        <v>0.07245329238620077</v>
+        <v>0.0005143709454318601</v>
       </c>
       <c r="T4">
-        <v>0.07245329238620077</v>
+        <v>0.0005143709454318601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.51585713870719</v>
+        <v>19.41905066666667</v>
       </c>
       <c r="N5">
-        <v>4.51585713870719</v>
+        <v>58.257152</v>
       </c>
       <c r="O5">
-        <v>0.1010459402522268</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="P5">
-        <v>0.1010459402522268</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="Q5">
-        <v>306.7246367839738</v>
+        <v>2913.545629911154</v>
       </c>
       <c r="R5">
-        <v>306.7246367839738</v>
+        <v>26221.91066920038</v>
       </c>
       <c r="S5">
-        <v>0.0204437761223356</v>
+        <v>0.1375271299848895</v>
       </c>
       <c r="T5">
-        <v>0.0204437761223356</v>
+        <v>0.1375271299848895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.5031156240661</v>
+        <v>6.433013333333332</v>
       </c>
       <c r="N6">
-        <v>32.5031156240661</v>
+        <v>19.29904</v>
       </c>
       <c r="O6">
-        <v>0.7272833879551917</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="P6">
-        <v>0.7272833879551917</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="Q6">
-        <v>2207.666457976851</v>
+        <v>439.90388098224</v>
       </c>
       <c r="R6">
-        <v>2207.666457976851</v>
+        <v>3959.134928840159</v>
       </c>
       <c r="S6">
-        <v>0.147145137387368</v>
+        <v>0.02076463728578939</v>
       </c>
       <c r="T6">
-        <v>0.147145137387368</v>
+        <v>0.02076463728578939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.67215611815838</v>
+        <v>32.709374</v>
       </c>
       <c r="N7">
-        <v>7.67215611815838</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O7">
-        <v>0.1716706717925815</v>
+        <v>0.5578561255548565</v>
       </c>
       <c r="P7">
-        <v>0.1716706717925815</v>
+        <v>0.5578561255548566</v>
       </c>
       <c r="Q7">
-        <v>521.1057893132913</v>
+        <v>2236.740361245882</v>
       </c>
       <c r="R7">
-        <v>521.1057893132913</v>
+        <v>20130.66325121294</v>
       </c>
       <c r="S7">
-        <v>0.03473268467924565</v>
+        <v>0.1055801149106738</v>
       </c>
       <c r="T7">
-        <v>0.03473268467924565</v>
+        <v>0.1055801149106738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.51585713870719</v>
+        <v>0.07263</v>
       </c>
       <c r="N8">
-        <v>4.51585713870719</v>
+        <v>0.21789</v>
       </c>
       <c r="O8">
-        <v>0.1010459402522268</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="P8">
-        <v>0.1010459402522268</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="Q8">
-        <v>412.0421166866462</v>
+        <v>4.96660230909</v>
       </c>
       <c r="R8">
-        <v>412.0421166866462</v>
+        <v>44.69942078181</v>
       </c>
       <c r="S8">
-        <v>0.02746338499195253</v>
+        <v>0.0002344368848502647</v>
       </c>
       <c r="T8">
-        <v>0.02746338499195253</v>
+        <v>0.0002344368848502646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.5031156240661</v>
+        <v>19.41905066666667</v>
       </c>
       <c r="N9">
-        <v>32.5031156240661</v>
+        <v>58.257152</v>
       </c>
       <c r="O9">
-        <v>0.7272833879551917</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="P9">
-        <v>0.7272833879551917</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="Q9">
-        <v>2965.694473781577</v>
+        <v>1327.918241517312</v>
       </c>
       <c r="R9">
-        <v>2965.694473781577</v>
+        <v>11951.26417365581</v>
       </c>
       <c r="S9">
-        <v>0.1976691357595124</v>
+        <v>0.06268128521331115</v>
       </c>
       <c r="T9">
-        <v>0.1976691357595124</v>
+        <v>0.06268128521331114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.67215611815838</v>
+        <v>6.433013333333332</v>
       </c>
       <c r="N10">
-        <v>7.67215611815838</v>
+        <v>19.29904</v>
       </c>
       <c r="O10">
-        <v>0.1716706717925815</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="P10">
-        <v>0.1716706717925815</v>
+        <v>0.1097146002786867</v>
       </c>
       <c r="Q10">
-        <v>700.0335372392652</v>
+        <v>673.7760935815999</v>
       </c>
       <c r="R10">
-        <v>700.0335372392652</v>
+        <v>6063.984842234398</v>
       </c>
       <c r="S10">
-        <v>0.04665855688509851</v>
+        <v>0.0318040299253983</v>
       </c>
       <c r="T10">
-        <v>0.04665855688509851</v>
+        <v>0.0318040299253983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.51585713870719</v>
+        <v>32.709374</v>
       </c>
       <c r="N11">
-        <v>4.51585713870719</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O11">
-        <v>0.1010459402522268</v>
+        <v>0.5578561255548565</v>
       </c>
       <c r="P11">
-        <v>0.1010459402522268</v>
+        <v>0.5578561255548566</v>
       </c>
       <c r="Q11">
-        <v>157.4227764238136</v>
+        <v>3425.889718434629</v>
       </c>
       <c r="R11">
-        <v>157.4227764238136</v>
+        <v>30833.00746591167</v>
       </c>
       <c r="S11">
-        <v>0.01049252525492955</v>
+        <v>0.1617111384095341</v>
       </c>
       <c r="T11">
-        <v>0.01049252525492955</v>
+        <v>0.1617111384095341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>32.5031156240661</v>
+        <v>0.07263</v>
       </c>
       <c r="N12">
-        <v>32.5031156240661</v>
+        <v>0.21789</v>
       </c>
       <c r="O12">
-        <v>0.7272833879551917</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="P12">
-        <v>0.7272833879551917</v>
+        <v>0.001238699658362439</v>
       </c>
       <c r="Q12">
-        <v>1133.058585956408</v>
+        <v>7.607066104349999</v>
       </c>
       <c r="R12">
-        <v>1133.058585956408</v>
+        <v>68.46359493915</v>
       </c>
       <c r="S12">
-        <v>0.07552049391160376</v>
+        <v>0.000359073823384222</v>
       </c>
       <c r="T12">
-        <v>0.07552049391160376</v>
+        <v>0.000359073823384222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.67215611815838</v>
+        <v>19.41905066666667</v>
       </c>
       <c r="N13">
-        <v>7.67215611815838</v>
+        <v>58.257152</v>
       </c>
       <c r="O13">
-        <v>0.1716706717925815</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="P13">
-        <v>0.1716706717925815</v>
+        <v>0.3311905745080943</v>
       </c>
       <c r="Q13">
-        <v>267.451356449067</v>
+        <v>2033.89786734208</v>
       </c>
       <c r="R13">
-        <v>267.451356449067</v>
+        <v>18305.08080607872</v>
       </c>
       <c r="S13">
-        <v>0.01782613784203653</v>
+        <v>0.09600540781181229</v>
       </c>
       <c r="T13">
-        <v>0.01782613784203653</v>
+        <v>0.09600540781181227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.15794</v>
+      </c>
+      <c r="H14">
+        <v>114.47382</v>
+      </c>
+      <c r="I14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.433013333333332</v>
+      </c>
+      <c r="N14">
+        <v>19.29904</v>
+      </c>
+      <c r="O14">
+        <v>0.1097146002786867</v>
+      </c>
+      <c r="P14">
+        <v>0.1097146002786867</v>
+      </c>
+      <c r="Q14">
+        <v>245.4705367925333</v>
+      </c>
+      <c r="R14">
+        <v>2209.2348311328</v>
+      </c>
+      <c r="S14">
+        <v>0.01158686449745316</v>
+      </c>
+      <c r="T14">
+        <v>0.01158686449745315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.15794</v>
+      </c>
+      <c r="H15">
+        <v>114.47382</v>
+      </c>
+      <c r="I15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>32.709374</v>
+      </c>
+      <c r="N15">
+        <v>98.12812199999999</v>
+      </c>
+      <c r="O15">
+        <v>0.5578561255548565</v>
+      </c>
+      <c r="P15">
+        <v>0.5578561255548566</v>
+      </c>
+      <c r="Q15">
+        <v>1248.12233052956</v>
+      </c>
+      <c r="R15">
+        <v>11233.10097476604</v>
+      </c>
+      <c r="S15">
+        <v>0.05891470523940839</v>
+      </c>
+      <c r="T15">
+        <v>0.05891470523940838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.15794</v>
+      </c>
+      <c r="H16">
+        <v>114.47382</v>
+      </c>
+      <c r="I16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07263</v>
+      </c>
+      <c r="N16">
+        <v>0.21789</v>
+      </c>
+      <c r="O16">
+        <v>0.001238699658362439</v>
+      </c>
+      <c r="P16">
+        <v>0.001238699658362439</v>
+      </c>
+      <c r="Q16">
+        <v>2.7714111822</v>
+      </c>
+      <c r="R16">
+        <v>24.9427006398</v>
+      </c>
+      <c r="S16">
+        <v>0.0001308180046960921</v>
+      </c>
+      <c r="T16">
+        <v>0.000130818004696092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.15794</v>
+      </c>
+      <c r="H17">
+        <v>114.47382</v>
+      </c>
+      <c r="I17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.41905066666667</v>
+      </c>
+      <c r="N17">
+        <v>58.257152</v>
+      </c>
+      <c r="O17">
+        <v>0.3311905745080943</v>
+      </c>
+      <c r="P17">
+        <v>0.3311905745080943</v>
+      </c>
+      <c r="Q17">
+        <v>740.9909701956268</v>
+      </c>
+      <c r="R17">
+        <v>6668.91873176064</v>
+      </c>
+      <c r="S17">
+        <v>0.03497675149808137</v>
+      </c>
+      <c r="T17">
+        <v>0.03497675149808136</v>
       </c>
     </row>
   </sheetData>
